--- a/components.xlsx
+++ b/components.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qcorb\Mon Drive\projets electroniques\smart_canne_v1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{3AF4BE79-13F2-451A-A86C-BEA55A713269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1035809-D698-478D-8BCB-98EB23A2BB01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -167,7 +167,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
   </numFmts>
@@ -560,17 +560,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.08984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -782,7 +782,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E13" t="s">
@@ -793,7 +793,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E14" t="s">
